--- a/ami-api-archive-service.xlsx
+++ b/ami-api-archive-service.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\PycharmProjects\Unittest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\Documents\GitHub\exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="444" windowWidth="26580" windowHeight="17556" tabRatio="528" activeTab="1"/>
+    <workbookView xWindow="1356" yWindow="444" windowWidth="26580" windowHeight="17556" tabRatio="528"/>
   </bookViews>
   <sheets>
     <sheet name="Archive Service Test Case" sheetId="24" r:id="rId1"/>
@@ -12350,9 +12350,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -12471,7 +12471,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="18">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>49</v>
@@ -12646,7 +12646,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
